--- a/original-sources/historical/demo/dshs_07_14.xlsx
+++ b/original-sources/historical/demo/dshs_07_14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21610E1E-05AC-47D8-91CA-409F7B3D13A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B16A2F-DEF0-490F-AB36-7D3DF4DE3F89}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14778" windowHeight="3150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,14 @@
     <sheet name="Fatalities by Gender" sheetId="13" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="339">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 7/14 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="341">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 7/15 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -815,7 +815,7 @@
     <t>Probable cases are not included in the total case numbers</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 7/14 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 7/15 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -848,7 +848,7 @@
     <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 7/14 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 7/15 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -860,7 +860,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 7/14 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 7/15 at 3:00PM CST</t>
   </si>
   <si>
     <t>Viral Tests</t>
@@ -901,7 +901,7 @@
     <t>*Average of previous 7 days</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 7/14 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 7/15 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -922,7 +922,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests in Texas as of 7/13 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests in Texas as of 7/14 at 3:00PM CST</t>
   </si>
   <si>
     <t>Antibody Tests</t>
@@ -934,7 +934,7 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 7/14 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 7/15 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -955,7 +955,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 7/14 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 7/15 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -964,7 +964,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 7/14 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 7/15 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -1019,10 +1019,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          25,496</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 7/14 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          26,272</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 7/15 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -1034,7 +1034,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 7/14 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 7/15 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1055,16 +1055,22 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 7/14 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =          719</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 7/14 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 7/14 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 7/15 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =          728</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 7/15 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 7/15 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>07/15/2020-SA*</t>
+  </si>
+  <si>
+    <t>** Texas is reporting 10,791 new confirmed COVID-19 cases for Wednesday, July 15. The San Antonio Metro Health District has clarified its reporting to separate confirmed and probable cases, so the Bexar County and statewide totals were updated to remove 3,484 probable cases. The local case count previously included probable cases identified by antigen testing but not those from antibody testing or other sources.</t>
   </si>
   <si>
     <t>06/16/2020-TDCJ*</t>
@@ -1084,7 +1090,7 @@
     <numFmt numFmtId="175" formatCode="##0"/>
     <numFmt numFmtId="177" formatCode="########.0&quot;%&quot;_);\(########.0&quot;%&quot;\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -1106,6 +1112,12 @@
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF112277"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9.5"/>
@@ -1180,9 +1192,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1231,14 +1243,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1380,12 +1395,12 @@
   <dimension ref="A1:C259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
@@ -1415,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>1917</v>
+        <v>1944</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -1426,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
@@ -1448,7 +1463,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -1481,7 +1496,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1492,7 +1507,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1514,7 +1529,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -1525,10 +1540,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>800</v>
+        <v>862</v>
       </c>
       <c r="C13" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -1547,7 +1562,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1558,7 +1573,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>2243</v>
+        <v>2396</v>
       </c>
       <c r="C16" s="4">
         <v>14</v>
@@ -1569,10 +1584,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>20213</v>
+        <v>17458</v>
       </c>
       <c r="C17" s="4">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -1580,7 +1595,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1602,7 +1617,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -1613,7 +1628,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C21" s="4">
         <v>16</v>
@@ -1624,7 +1639,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>3834</v>
+        <v>3988</v>
       </c>
       <c r="C22" s="4">
         <v>28</v>
@@ -1635,10 +1650,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>3066</v>
+        <v>3120</v>
       </c>
       <c r="C23" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -1646,7 +1661,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -1668,7 +1683,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -1679,7 +1694,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C27" s="4">
         <v>13</v>
@@ -1690,7 +1705,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1701,10 +1716,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="C29" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -1712,7 +1727,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>710</v>
+        <v>749</v>
       </c>
       <c r="C30" s="4">
         <v>5</v>
@@ -1723,7 +1738,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -1745,7 +1760,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>4175</v>
+        <v>4590</v>
       </c>
       <c r="C33" s="4">
         <v>79</v>
@@ -1778,7 +1793,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" s="4">
         <v>3</v>
@@ -1789,7 +1804,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1800,10 +1815,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>590</v>
+        <v>618</v>
       </c>
       <c r="C38" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -1811,7 +1826,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -1844,7 +1859,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
@@ -1877,10 +1892,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>4685</v>
+        <v>4800</v>
       </c>
       <c r="C45" s="4">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -1899,7 +1914,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1910,10 +1925,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>1017</v>
+        <v>1077</v>
       </c>
       <c r="C48" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -1921,7 +1936,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -1943,7 +1958,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -1954,7 +1969,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C52" s="4">
         <v>3</v>
@@ -1979,7 +1994,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2020,7 +2035,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
@@ -2031,10 +2046,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>34914</v>
+        <v>35914</v>
       </c>
       <c r="C59" s="4">
-        <v>457</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2042,7 +2057,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
@@ -2064,7 +2079,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C62" s="4">
         <v>17</v>
@@ -2086,10 +2101,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>4162</v>
+        <v>4316</v>
       </c>
       <c r="C64" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2108,7 +2123,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
@@ -2174,10 +2189,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>9953</v>
+        <v>10298</v>
       </c>
       <c r="C72" s="4">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2185,7 +2200,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>1729</v>
+        <v>1811</v>
       </c>
       <c r="C73" s="4">
         <v>21</v>
@@ -2196,7 +2211,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -2218,7 +2233,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C76" s="4">
         <v>8</v>
@@ -2229,7 +2244,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C77" s="4">
         <v>4</v>
@@ -2240,7 +2255,7 @@
         <v>79</v>
       </c>
       <c r="B78" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C78" s="4">
         <v>1</v>
@@ -2251,7 +2266,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C79" s="4">
         <v>2</v>
@@ -2273,10 +2288,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>5015</v>
+        <v>5211</v>
       </c>
       <c r="C81" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2295,7 +2310,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2306,7 +2321,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2317,7 +2332,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -2328,10 +2343,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>6201</v>
+        <v>6307</v>
       </c>
       <c r="C86" s="4">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2339,7 +2354,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="4">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -2350,7 +2365,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -2383,7 +2398,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
@@ -2394,7 +2409,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C92" s="4">
         <v>4</v>
@@ -2405,7 +2420,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="C93" s="4">
         <v>7</v>
@@ -2416,7 +2431,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>837</v>
+        <v>889</v>
       </c>
       <c r="C94" s="4">
         <v>15</v>
@@ -2427,7 +2442,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>658</v>
+        <v>691</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2438,7 +2453,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>1044</v>
+        <v>1115</v>
       </c>
       <c r="C96" s="4">
         <v>3</v>
@@ -2449,10 +2464,10 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>776</v>
+        <v>808</v>
       </c>
       <c r="C97" s="4">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2471,7 +2486,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="4">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -2482,7 +2497,7 @@
         <v>101</v>
       </c>
       <c r="B100" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C100" s="4">
         <v>2</v>
@@ -2504,7 +2519,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>404</v>
+        <v>488</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2515,10 +2530,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>47369</v>
+        <v>49027</v>
       </c>
       <c r="C103" s="4">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2526,7 +2541,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C104" s="4">
         <v>31</v>
@@ -2537,7 +2552,7 @@
         <v>106</v>
       </c>
       <c r="B105" s="4">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C105" s="4">
         <v>2</v>
@@ -2548,7 +2563,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="4">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C106" s="4">
         <v>0</v>
@@ -2559,10 +2574,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>3643</v>
+        <v>3699</v>
       </c>
       <c r="C107" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2581,7 +2596,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="C109" s="4">
         <v>5</v>
@@ -2592,10 +2607,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>8040</v>
+        <v>8197</v>
       </c>
       <c r="C110" s="4">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2603,7 +2618,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="C111" s="4">
         <v>2</v>
@@ -2614,10 +2629,10 @@
         <v>113</v>
       </c>
       <c r="B112" s="4">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C112" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2625,7 +2640,7 @@
         <v>114</v>
       </c>
       <c r="B113" s="4">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C113" s="4">
         <v>5</v>
@@ -2636,7 +2651,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -2647,7 +2662,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2658,7 +2673,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -2680,7 +2695,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>720</v>
+        <v>768</v>
       </c>
       <c r="C118" s="4">
         <v>8</v>
@@ -2691,7 +2706,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -2724,7 +2739,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
@@ -2735,7 +2750,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C123" s="4">
         <v>1</v>
@@ -2746,7 +2761,7 @@
         <v>125</v>
       </c>
       <c r="B124" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" s="4">
         <v>0</v>
@@ -2757,10 +2772,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>3665</v>
+        <v>3868</v>
       </c>
       <c r="C125" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2768,7 +2783,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="4">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -2779,7 +2794,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2790,7 +2805,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>885</v>
+        <v>932</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2801,7 +2816,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2812,7 +2827,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="4">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -2823,7 +2838,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>1061</v>
+        <v>1109</v>
       </c>
       <c r="C131" s="4">
         <v>5</v>
@@ -2867,7 +2882,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C135" s="4">
         <v>1</v>
@@ -2911,7 +2926,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
@@ -2922,7 +2937,7 @@
         <v>141</v>
       </c>
       <c r="B140" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C140" s="4">
         <v>0</v>
@@ -2955,7 +2970,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -2966,7 +2981,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -2977,7 +2992,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -2988,7 +3003,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C146" s="4">
         <v>3</v>
@@ -2999,7 +3014,7 @@
         <v>148</v>
       </c>
       <c r="B147" s="4">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3010,7 +3025,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3021,7 +3036,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3043,7 +3058,7 @@
         <v>152</v>
       </c>
       <c r="B151" s="4">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C151" s="4">
         <v>0</v>
@@ -3054,7 +3069,7 @@
         <v>153</v>
       </c>
       <c r="B152" s="4">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
@@ -3087,7 +3102,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C155" s="4">
         <v>2</v>
@@ -3098,7 +3113,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3120,7 +3135,7 @@
         <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
@@ -3142,7 +3157,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3153,10 +3168,10 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>776</v>
+        <v>874</v>
       </c>
       <c r="C161" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3175,10 +3190,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>2744</v>
+        <v>2920</v>
       </c>
       <c r="C163" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3197,7 +3212,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>360</v>
+        <v>419</v>
       </c>
       <c r="C165" s="4">
         <v>3</v>
@@ -3219,10 +3234,10 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>1194</v>
+        <v>1266</v>
       </c>
       <c r="C167" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3230,7 +3245,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3252,7 +3267,7 @@
         <v>171</v>
       </c>
       <c r="B170" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
@@ -3263,7 +3278,7 @@
         <v>172</v>
       </c>
       <c r="B171" s="4">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C171" s="4">
         <v>1</v>
@@ -3274,10 +3289,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>3112</v>
+        <v>3471</v>
       </c>
       <c r="C172" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3318,7 +3333,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="C176" s="4">
         <v>33</v>
@@ -3329,7 +3344,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="C177" s="4">
         <v>7</v>
@@ -3340,7 +3355,7 @@
         <v>179</v>
       </c>
       <c r="B178" s="4">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C178" s="4">
         <v>0</v>
@@ -3351,7 +3366,7 @@
         <v>180</v>
       </c>
       <c r="B179" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -3362,10 +3377,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>6427</v>
+        <v>7032</v>
       </c>
       <c r="C180" s="4">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3406,7 +3421,7 @@
         <v>185</v>
       </c>
       <c r="B184" s="4">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C184" s="4">
         <v>2</v>
@@ -3428,7 +3443,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>615</v>
+        <v>665</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3450,7 +3465,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C188" s="4">
         <v>1</v>
@@ -3472,7 +3487,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>3056</v>
+        <v>3081</v>
       </c>
       <c r="C190" s="4">
         <v>39</v>
@@ -3483,7 +3498,7 @@
         <v>192</v>
       </c>
       <c r="B191" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
@@ -3494,10 +3509,10 @@
         <v>193</v>
       </c>
       <c r="B192" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C192" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3505,7 +3520,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>1105</v>
+        <v>1133</v>
       </c>
       <c r="C193" s="4">
         <v>7</v>
@@ -3549,10 +3564,10 @@
         <v>198</v>
       </c>
       <c r="B197" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C197" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3560,7 +3575,7 @@
         <v>199</v>
       </c>
       <c r="B198" s="4">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -3582,7 +3597,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3593,7 +3608,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="C201" s="4">
         <v>16</v>
@@ -3604,7 +3619,7 @@
         <v>203</v>
       </c>
       <c r="B202" s="4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -3615,7 +3630,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C203" s="4">
         <v>3</v>
@@ -3648,7 +3663,7 @@
         <v>207</v>
       </c>
       <c r="B206" s="4">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C206" s="4">
         <v>2</v>
@@ -3659,7 +3674,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -3670,7 +3685,7 @@
         <v>209</v>
       </c>
       <c r="B208" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
@@ -3714,7 +3729,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C212" s="4">
         <v>14</v>
@@ -3736,7 +3751,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>1441</v>
+        <v>1499</v>
       </c>
       <c r="C214" s="4">
         <v>7</v>
@@ -3758,10 +3773,10 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>1017</v>
+        <v>1061</v>
       </c>
       <c r="C216" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3769,7 +3784,7 @@
         <v>218</v>
       </c>
       <c r="B217" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C217" s="4">
         <v>0</v>
@@ -3802,7 +3817,7 @@
         <v>221</v>
       </c>
       <c r="B220" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
@@ -3813,7 +3828,7 @@
         <v>222</v>
       </c>
       <c r="B221" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C221" s="4">
         <v>1</v>
@@ -3824,7 +3839,7 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>18483</v>
+        <v>19014</v>
       </c>
       <c r="C222" s="4">
         <v>272</v>
@@ -3835,10 +3850,10 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>766</v>
+        <v>794</v>
       </c>
       <c r="C223" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3857,7 +3872,7 @@
         <v>226</v>
       </c>
       <c r="B225" s="4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
@@ -3879,7 +3894,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C227" s="4">
         <v>6</v>
@@ -3890,10 +3905,10 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>1065</v>
+        <v>1160</v>
       </c>
       <c r="C228" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3901,10 +3916,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>15445</v>
+        <v>15998</v>
       </c>
       <c r="C229" s="4">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3912,7 +3927,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -3934,7 +3949,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -3956,10 +3971,10 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C234" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3967,10 +3982,10 @@
         <v>236</v>
       </c>
       <c r="B235" s="4">
-        <v>503</v>
+        <v>657</v>
       </c>
       <c r="C235" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3978,7 +3993,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C236" s="4">
         <v>3</v>
@@ -3989,10 +4004,10 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>1599</v>
+        <v>1991</v>
       </c>
       <c r="C237" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4000,7 +4015,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>2490</v>
+        <v>2495</v>
       </c>
       <c r="C238" s="4">
         <v>28</v>
@@ -4011,7 +4026,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4022,7 +4037,7 @@
         <v>241</v>
       </c>
       <c r="B240" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4033,7 +4048,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="C241" s="4">
         <v>33</v>
@@ -4044,10 +4059,10 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>3001</v>
+        <v>3211</v>
       </c>
       <c r="C242" s="4">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4055,7 +4070,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4066,7 +4081,7 @@
         <v>245</v>
       </c>
       <c r="B244" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C244" s="4">
         <v>0</v>
@@ -4077,10 +4092,10 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="C245" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4088,7 +4103,7 @@
         <v>247</v>
       </c>
       <c r="B246" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
@@ -4099,7 +4114,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4110,7 +4125,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>4042</v>
+        <v>4153</v>
       </c>
       <c r="C248" s="4">
         <v>56</v>
@@ -4121,7 +4136,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4132,7 +4147,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4143,7 +4158,7 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C251" s="4">
         <v>5</v>
@@ -4154,7 +4169,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
@@ -4176,7 +4191,7 @@
         <v>255</v>
       </c>
       <c r="B254" s="4">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C254" s="4">
         <v>1</v>
@@ -4187,7 +4202,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4198,7 +4213,7 @@
         <v>257</v>
       </c>
       <c r="B256" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4209,10 +4224,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>275058</v>
+        <v>282365</v>
       </c>
       <c r="C257" s="4">
-        <v>3322</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4239,10 +4254,10 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4272,10 +4287,10 @@
         <v>325</v>
       </c>
       <c r="B3" s="11">
-        <v>12249</v>
-      </c>
-      <c r="C3" s="19">
-        <v>48.042830248000001</v>
+        <v>12560</v>
+      </c>
+      <c r="C3" s="20">
+        <v>47.807551766000003</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4283,10 +4298,10 @@
         <v>326</v>
       </c>
       <c r="B4" s="11">
-        <v>12955</v>
-      </c>
-      <c r="C4" s="19">
-        <v>50.811892061999998</v>
+        <v>13369</v>
+      </c>
+      <c r="C4" s="20">
+        <v>50.886875760999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4294,10 +4309,10 @@
         <v>320</v>
       </c>
       <c r="B5" s="11">
-        <v>292</v>
-      </c>
-      <c r="C5" s="19">
-        <v>1.1452776906</v>
+        <v>343</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1.3055724726</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4305,9 +4320,9 @@
         <v>258</v>
       </c>
       <c r="B6" s="11">
-        <v>25496</v>
-      </c>
-      <c r="C6" s="19">
+        <v>26272</v>
+      </c>
+      <c r="C6" s="20">
         <v>100</v>
       </c>
     </row>
@@ -4351,10 +4366,10 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4384,10 +4399,10 @@
         <v>329</v>
       </c>
       <c r="B3" s="11">
-        <v>642</v>
-      </c>
-      <c r="C3" s="19">
-        <v>2.5180420458000001</v>
+        <v>651</v>
+      </c>
+      <c r="C3" s="20">
+        <v>2.4779232643000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4395,10 +4410,10 @@
         <v>330</v>
       </c>
       <c r="B4" s="11">
-        <v>2916</v>
-      </c>
-      <c r="C4" s="19">
-        <v>11.437088170999999</v>
+        <v>2989</v>
+      </c>
+      <c r="C4" s="20">
+        <v>11.377131546999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4406,10 +4421,10 @@
         <v>331</v>
       </c>
       <c r="B5" s="11">
-        <v>10134</v>
-      </c>
-      <c r="C5" s="19">
-        <v>39.747411358999997</v>
+        <v>10534</v>
+      </c>
+      <c r="C5" s="20">
+        <v>40.095919610000003</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4417,10 +4432,10 @@
         <v>332</v>
       </c>
       <c r="B6" s="11">
-        <v>133</v>
-      </c>
-      <c r="C6" s="19">
-        <v>0.52165045499999996</v>
+        <v>135</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.51385505480000004</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4428,10 +4443,10 @@
         <v>333</v>
       </c>
       <c r="B7" s="11">
-        <v>6346</v>
-      </c>
-      <c r="C7" s="19">
-        <v>24.890178851999998</v>
+        <v>6522</v>
+      </c>
+      <c r="C7" s="20">
+        <v>24.824908648000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4439,10 +4454,10 @@
         <v>320</v>
       </c>
       <c r="B8" s="11">
-        <v>5325</v>
-      </c>
-      <c r="C8" s="19">
-        <v>20.885629118000001</v>
+        <v>5441</v>
+      </c>
+      <c r="C8" s="20">
+        <v>20.710261876000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4450,9 +4465,9 @@
         <v>258</v>
       </c>
       <c r="B9" s="11">
-        <v>25496</v>
-      </c>
-      <c r="C9" s="19">
+        <v>26272</v>
+      </c>
+      <c r="C9" s="20">
         <v>100</v>
       </c>
     </row>
@@ -4496,10 +4511,10 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4531,7 +4546,7 @@
       <c r="B3" s="12">
         <v>0</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="20">
         <v>0</v>
       </c>
     </row>
@@ -4542,7 +4557,7 @@
       <c r="B4" s="12">
         <v>0</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="20">
         <v>0</v>
       </c>
     </row>
@@ -4553,7 +4568,7 @@
       <c r="B5" s="12">
         <v>0</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="20">
         <v>0</v>
       </c>
     </row>
@@ -4562,10 +4577,10 @@
         <v>311</v>
       </c>
       <c r="B6" s="12">
-        <v>5</v>
-      </c>
-      <c r="C6" s="19">
-        <v>0.69541029210000005</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.54945054950000005</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4575,8 +4590,8 @@
       <c r="B7" s="12">
         <v>12</v>
       </c>
-      <c r="C7" s="19">
-        <v>1.6689847010000001</v>
+      <c r="C7" s="20">
+        <v>1.6483516484</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4584,10 +4599,10 @@
         <v>313</v>
       </c>
       <c r="B8" s="12">
-        <v>26</v>
-      </c>
-      <c r="C8" s="19">
-        <v>3.6161335187999999</v>
+        <v>28</v>
+      </c>
+      <c r="C8" s="20">
+        <v>3.8461538462</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4597,8 +4612,8 @@
       <c r="B9" s="12">
         <v>77</v>
       </c>
-      <c r="C9" s="19">
-        <v>10.709318498</v>
+      <c r="C9" s="20">
+        <v>10.576923077</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4606,10 +4621,10 @@
         <v>315</v>
       </c>
       <c r="B10" s="12">
-        <v>71</v>
-      </c>
-      <c r="C10" s="19">
-        <v>9.8748261474000003</v>
+        <v>74</v>
+      </c>
+      <c r="C10" s="20">
+        <v>10.164835165</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4617,10 +4632,10 @@
         <v>316</v>
       </c>
       <c r="B11" s="12">
-        <v>82</v>
-      </c>
-      <c r="C11" s="19">
-        <v>11.40472879</v>
+        <v>84</v>
+      </c>
+      <c r="C11" s="20">
+        <v>11.538461538</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4630,8 +4645,8 @@
       <c r="B12" s="12">
         <v>79</v>
       </c>
-      <c r="C12" s="19">
-        <v>10.987482614999999</v>
+      <c r="C12" s="20">
+        <v>10.851648352</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4639,10 +4654,10 @@
         <v>318</v>
       </c>
       <c r="B13" s="12">
-        <v>83</v>
-      </c>
-      <c r="C13" s="19">
-        <v>11.543810848</v>
+        <v>85</v>
+      </c>
+      <c r="C13" s="20">
+        <v>11.675824176000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4650,10 +4665,10 @@
         <v>319</v>
       </c>
       <c r="B14" s="12">
-        <v>284</v>
-      </c>
-      <c r="C14" s="19">
-        <v>39.499304590000001</v>
+        <v>285</v>
+      </c>
+      <c r="C14" s="20">
+        <v>39.148351648000002</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4663,7 +4678,7 @@
       <c r="B15" s="12">
         <v>0</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="20">
         <v>0</v>
       </c>
     </row>
@@ -4672,9 +4687,9 @@
         <v>258</v>
       </c>
       <c r="B16" s="12">
-        <v>719</v>
-      </c>
-      <c r="C16" s="19">
+        <v>728</v>
+      </c>
+      <c r="C16" s="20">
         <v>100</v>
       </c>
     </row>
@@ -4721,7 +4736,7 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4751,10 +4766,10 @@
         <v>325</v>
       </c>
       <c r="B3" s="12">
-        <v>299</v>
-      </c>
-      <c r="C3" s="19">
-        <v>41.585535466000003</v>
+        <v>300</v>
+      </c>
+      <c r="C3" s="20">
+        <v>41.208791208999997</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4762,10 +4777,10 @@
         <v>326</v>
       </c>
       <c r="B4" s="12">
-        <v>419</v>
-      </c>
-      <c r="C4" s="19">
-        <v>58.275382475999997</v>
+        <v>427</v>
+      </c>
+      <c r="C4" s="20">
+        <v>58.653846154</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4775,8 +4790,8 @@
       <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="19">
-        <v>0.13908205840000001</v>
+      <c r="C5" s="20">
+        <v>0.13736263739999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4784,9 +4799,9 @@
         <v>258</v>
       </c>
       <c r="B6" s="12">
-        <v>719</v>
-      </c>
-      <c r="C6" s="19">
+        <v>728</v>
+      </c>
+      <c r="C6" s="20">
         <v>100</v>
       </c>
     </row>
@@ -4830,10 +4845,10 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4865,8 +4880,8 @@
       <c r="B3" s="11">
         <v>14</v>
       </c>
-      <c r="C3" s="19">
-        <v>1.9471488178</v>
+      <c r="C3" s="20">
+        <v>1.9230769231</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4874,10 +4889,10 @@
         <v>330</v>
       </c>
       <c r="B4" s="11">
-        <v>92</v>
-      </c>
-      <c r="C4" s="19">
-        <v>12.795549374</v>
+        <v>94</v>
+      </c>
+      <c r="C4" s="20">
+        <v>12.912087912000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4885,10 +4900,10 @@
         <v>331</v>
       </c>
       <c r="B5" s="11">
-        <v>210</v>
-      </c>
-      <c r="C5" s="19">
-        <v>29.207232266999998</v>
+        <v>211</v>
+      </c>
+      <c r="C5" s="20">
+        <v>28.983516483999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4898,8 +4913,8 @@
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="19">
-        <v>0.13908205840000001</v>
+      <c r="C6" s="20">
+        <v>0.13736263739999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4907,10 +4922,10 @@
         <v>333</v>
       </c>
       <c r="B7" s="11">
-        <v>310</v>
-      </c>
-      <c r="C7" s="19">
-        <v>43.115438107999999</v>
+        <v>315</v>
+      </c>
+      <c r="C7" s="20">
+        <v>43.269230769000004</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4918,10 +4933,10 @@
         <v>320</v>
       </c>
       <c r="B8" s="11">
-        <v>92</v>
-      </c>
-      <c r="C8" s="19">
-        <v>12.795549374</v>
+        <v>93</v>
+      </c>
+      <c r="C8" s="20">
+        <v>12.774725275</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4929,9 +4944,9 @@
         <v>258</v>
       </c>
       <c r="B9" s="11">
-        <v>719</v>
-      </c>
-      <c r="C9" s="19">
+        <v>728</v>
+      </c>
+      <c r="C9" s="20">
         <v>100</v>
       </c>
     </row>
@@ -4970,17 +4985,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.38671875" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -6434,7 +6449,7 @@
     </row>
     <row r="87" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B87" s="4">
         <v>93206</v>
@@ -6925,33 +6940,79 @@
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="15" t="s">
+    <row r="116" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B116" s="4">
+        <f>B115-3484</f>
+        <v>271574</v>
+      </c>
+      <c r="C116" s="4">
+        <v>3322</v>
+      </c>
+      <c r="D116" s="4">
+        <v>-3484</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="6">
+        <v>44027</v>
+      </c>
+      <c r="B117" s="4">
+        <v>282365</v>
+      </c>
+      <c r="C117" s="4">
+        <v>3432</v>
+      </c>
+      <c r="D117" s="4">
+        <v>10791</v>
+      </c>
+      <c r="E117" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-    </row>
-    <row r="118" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="15" t="s">
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+    </row>
+    <row r="120" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+    </row>
+    <row r="121" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A121:E121"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6965,7 +7026,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -6987,10 +7048,10 @@
     </row>
     <row r="3" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
-        <v>142397.79999999999</v>
+        <v>149275.6</v>
       </c>
       <c r="B3" s="8">
-        <v>129338</v>
+        <v>129657</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -7011,20 +7072,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9696,43 +9757,57 @@
       <c r="A104" s="6">
         <v>44026</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>267</v>
+      <c r="B104" s="8">
+        <v>2642199</v>
+      </c>
+      <c r="C104" s="8">
+        <v>222342</v>
       </c>
       <c r="D104" s="8">
         <v>2864541</v>
       </c>
-      <c r="E104" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H104" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="15" t="s">
+      <c r="E104" s="18">
+        <v>0.16812128576681001</v>
+      </c>
+      <c r="F104" s="8">
+        <v>54784</v>
+      </c>
+      <c r="G104" s="8">
+        <v>1432</v>
+      </c>
+      <c r="H104" s="8">
+        <v>56216</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="6">
+        <v>44027</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D105" s="8">
+        <v>2924288</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="15" t="s">
         <v>281</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-    </row>
-    <row r="107" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="15" t="s">
-        <v>282</v>
       </c>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -9742,11 +9817,23 @@
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
     </row>
+    <row r="108" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A106:H106"/>
     <mergeCell ref="A107:H107"/>
+    <mergeCell ref="A108:H108"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9763,7 +9850,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -9788,7 +9875,7 @@
         <v>286</v>
       </c>
       <c r="B3" s="8">
-        <v>106892</v>
+        <v>108617</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -9796,7 +9883,7 @@
         <v>287</v>
       </c>
       <c r="B4" s="8">
-        <v>2757649</v>
+        <v>2815671</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -9804,7 +9891,7 @@
         <v>288</v>
       </c>
       <c r="B5" s="8">
-        <v>2864541</v>
+        <v>2924288</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -9833,7 +9920,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -9858,7 +9945,7 @@
         <v>292</v>
       </c>
       <c r="B3" s="8">
-        <v>222123</v>
+        <v>222342</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -9866,7 +9953,7 @@
         <v>293</v>
       </c>
       <c r="B4" s="8">
-        <v>7646</v>
+        <v>7652</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -9895,7 +9982,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
@@ -9920,7 +10007,7 @@
         <v>296</v>
       </c>
       <c r="B3" s="9">
-        <v>10569</v>
+        <v>10471</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -9928,7 +10015,7 @@
         <v>297</v>
       </c>
       <c r="B4" s="9">
-        <v>55017</v>
+        <v>56171</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -9936,7 +10023,7 @@
         <v>298</v>
       </c>
       <c r="B5" s="9">
-        <v>11402</v>
+        <v>10586</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -9944,7 +10031,7 @@
         <v>299</v>
       </c>
       <c r="B6" s="9">
-        <v>949</v>
+        <v>853</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -9952,7 +10039,7 @@
         <v>300</v>
       </c>
       <c r="B7" s="9">
-        <v>5051</v>
+        <v>5059</v>
       </c>
     </row>
   </sheetData>
@@ -9966,7 +10053,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -9974,7 +10061,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -11119,6 +11206,17 @@
       </c>
       <c r="C104" s="9">
         <v>10569</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="2">
+        <v>103</v>
+      </c>
+      <c r="B105" s="6">
+        <v>44027</v>
+      </c>
+      <c r="C105" s="9">
+        <v>10471</v>
       </c>
     </row>
   </sheetData>
@@ -11140,7 +11238,7 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -11170,10 +11268,10 @@
         <v>308</v>
       </c>
       <c r="B3" s="11">
-        <v>106</v>
-      </c>
-      <c r="C3" s="19">
-        <v>0.41575149039999998</v>
+        <v>111</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0.42250304509999997</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11181,10 +11279,10 @@
         <v>309</v>
       </c>
       <c r="B4" s="11">
-        <v>479</v>
-      </c>
-      <c r="C4" s="19">
-        <v>1.8787260747000001</v>
+        <v>496</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1.8879415346999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11192,10 +11290,10 @@
         <v>310</v>
       </c>
       <c r="B5" s="11">
-        <v>1244</v>
-      </c>
-      <c r="C5" s="19">
-        <v>4.8791967367</v>
+        <v>1293</v>
+      </c>
+      <c r="C5" s="20">
+        <v>4.9215895249999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11203,10 +11301,10 @@
         <v>311</v>
       </c>
       <c r="B6" s="11">
-        <v>4718</v>
-      </c>
-      <c r="C6" s="19">
-        <v>18.504863508</v>
+        <v>4901</v>
+      </c>
+      <c r="C6" s="20">
+        <v>18.654841656999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11214,10 +11312,10 @@
         <v>312</v>
       </c>
       <c r="B7" s="11">
-        <v>4717</v>
-      </c>
-      <c r="C7" s="19">
-        <v>18.500941323999999</v>
+        <v>4867</v>
+      </c>
+      <c r="C7" s="20">
+        <v>18.525426309</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11225,10 +11323,10 @@
         <v>313</v>
       </c>
       <c r="B8" s="11">
-        <v>4538</v>
-      </c>
-      <c r="C8" s="19">
-        <v>17.798870410999999</v>
+        <v>4684</v>
+      </c>
+      <c r="C8" s="20">
+        <v>17.828867235000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11236,10 +11334,10 @@
         <v>314</v>
       </c>
       <c r="B9" s="11">
-        <v>4251</v>
-      </c>
-      <c r="C9" s="19">
-        <v>16.673203640000001</v>
+        <v>4353</v>
+      </c>
+      <c r="C9" s="20">
+        <v>16.568970767</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11247,10 +11345,10 @@
         <v>315</v>
       </c>
       <c r="B10" s="11">
-        <v>1688</v>
-      </c>
-      <c r="C10" s="19">
-        <v>6.6206463758999998</v>
+        <v>1735</v>
+      </c>
+      <c r="C10" s="20">
+        <v>6.6039890377999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11258,10 +11356,10 @@
         <v>316</v>
       </c>
       <c r="B11" s="11">
-        <v>1225</v>
-      </c>
-      <c r="C11" s="19">
-        <v>4.8046752432000002</v>
+        <v>1266</v>
+      </c>
+      <c r="C11" s="20">
+        <v>4.8188185140000002</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11269,10 +11367,10 @@
         <v>317</v>
       </c>
       <c r="B12" s="11">
-        <v>795</v>
-      </c>
-      <c r="C12" s="19">
-        <v>3.1181361781999999</v>
+        <v>807</v>
+      </c>
+      <c r="C12" s="20">
+        <v>3.0717113276000001</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11280,10 +11378,10 @@
         <v>318</v>
       </c>
       <c r="B13" s="11">
-        <v>601</v>
-      </c>
-      <c r="C13" s="19">
-        <v>2.3572325071</v>
+        <v>615</v>
+      </c>
+      <c r="C13" s="20">
+        <v>2.3408952497</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11291,10 +11389,10 @@
         <v>319</v>
       </c>
       <c r="B14" s="11">
-        <v>1116</v>
-      </c>
-      <c r="C14" s="19">
-        <v>4.3771572011000002</v>
+        <v>1126</v>
+      </c>
+      <c r="C14" s="20">
+        <v>4.2859317905000003</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11304,8 +11402,8 @@
       <c r="B15" s="11">
         <v>18</v>
       </c>
-      <c r="C15" s="19">
-        <v>7.0599309700000001E-2</v>
+      <c r="C15" s="20">
+        <v>6.8514007299999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11313,9 +11411,9 @@
         <v>258</v>
       </c>
       <c r="B16" s="11">
-        <v>25496</v>
-      </c>
-      <c r="C16" s="19">
+        <v>26272</v>
+      </c>
+      <c r="C16" s="20">
         <v>100</v>
       </c>
     </row>

--- a/original-sources/historical/demo/dshs_07_14.xlsx
+++ b/original-sources/historical/demo/dshs_07_14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B16A2F-DEF0-490F-AB36-7D3DF4DE3F89}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21610E1E-05AC-47D8-91CA-409F7B3D13A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14778" windowHeight="3150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,14 @@
     <sheet name="Fatalities by Gender" sheetId="13" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="341">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 7/15 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="339">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 7/14 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -815,7 +815,7 @@
     <t>Probable cases are not included in the total case numbers</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 7/15 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 7/14 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -848,7 +848,7 @@
     <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 7/15 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 7/14 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -860,7 +860,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 7/15 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 7/14 at 3:00PM CST</t>
   </si>
   <si>
     <t>Viral Tests</t>
@@ -901,7 +901,7 @@
     <t>*Average of previous 7 days</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 7/15 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 7/14 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -922,7 +922,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests in Texas as of 7/14 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests in Texas as of 7/13 at 3:00PM CST</t>
   </si>
   <si>
     <t>Antibody Tests</t>
@@ -934,7 +934,7 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 7/15 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 7/14 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -955,7 +955,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 7/15 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 7/14 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -964,7 +964,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 7/15 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 7/14 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -1019,10 +1019,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          26,272</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 7/15 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          25,496</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 7/14 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -1034,7 +1034,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 7/15 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 7/14 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1055,22 +1055,16 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 7/15 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =          728</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 7/15 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 7/15 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>07/15/2020-SA*</t>
-  </si>
-  <si>
-    <t>** Texas is reporting 10,791 new confirmed COVID-19 cases for Wednesday, July 15. The San Antonio Metro Health District has clarified its reporting to separate confirmed and probable cases, so the Bexar County and statewide totals were updated to remove 3,484 probable cases. The local case count previously included probable cases identified by antigen testing but not those from antibody testing or other sources.</t>
+    <t>Age of Confirmed Fatalities as of 7/14 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =          719</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 7/14 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 7/14 at 9:30 AM CST</t>
   </si>
   <si>
     <t>06/16/2020-TDCJ*</t>
@@ -1090,7 +1084,7 @@
     <numFmt numFmtId="175" formatCode="##0"/>
     <numFmt numFmtId="177" formatCode="########.0&quot;%&quot;_);\(########.0&quot;%&quot;\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -1112,12 +1106,6 @@
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FF112277"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9.5"/>
@@ -1192,9 +1180,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1243,17 +1231,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1395,12 +1380,12 @@
   <dimension ref="A1:C259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
@@ -1430,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>1944</v>
+        <v>1917</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -1441,7 +1426,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
@@ -1463,7 +1448,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -1496,7 +1481,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1507,7 +1492,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1529,7 +1514,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -1540,10 +1525,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>862</v>
+        <v>800</v>
       </c>
       <c r="C13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -1562,7 +1547,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1573,7 +1558,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>2396</v>
+        <v>2243</v>
       </c>
       <c r="C16" s="4">
         <v>14</v>
@@ -1584,10 +1569,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>17458</v>
+        <v>20213</v>
       </c>
       <c r="C17" s="4">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -1595,7 +1580,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1617,7 +1602,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -1628,7 +1613,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C21" s="4">
         <v>16</v>
@@ -1639,7 +1624,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>3988</v>
+        <v>3834</v>
       </c>
       <c r="C22" s="4">
         <v>28</v>
@@ -1650,10 +1635,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>3120</v>
+        <v>3066</v>
       </c>
       <c r="C23" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -1661,7 +1646,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -1683,7 +1668,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -1694,7 +1679,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C27" s="4">
         <v>13</v>
@@ -1705,7 +1690,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1716,10 +1701,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C29" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -1727,7 +1712,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>749</v>
+        <v>710</v>
       </c>
       <c r="C30" s="4">
         <v>5</v>
@@ -1738,7 +1723,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -1760,7 +1745,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>4590</v>
+        <v>4175</v>
       </c>
       <c r="C33" s="4">
         <v>79</v>
@@ -1793,7 +1778,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C36" s="4">
         <v>3</v>
@@ -1804,7 +1789,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1815,10 +1800,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>618</v>
+        <v>590</v>
       </c>
       <c r="C38" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -1826,7 +1811,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -1859,7 +1844,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
@@ -1892,10 +1877,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>4800</v>
+        <v>4685</v>
       </c>
       <c r="C45" s="4">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -1914,7 +1899,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1925,10 +1910,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>1077</v>
+        <v>1017</v>
       </c>
       <c r="C48" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -1936,7 +1921,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -1958,7 +1943,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -1969,7 +1954,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C52" s="4">
         <v>3</v>
@@ -1994,7 +1979,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2035,7 +2020,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
@@ -2046,10 +2031,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>35914</v>
+        <v>34914</v>
       </c>
       <c r="C59" s="4">
-        <v>477</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2057,7 +2042,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="4">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
@@ -2079,7 +2064,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="C62" s="4">
         <v>17</v>
@@ -2101,10 +2086,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>4316</v>
+        <v>4162</v>
       </c>
       <c r="C64" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2123,7 +2108,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
@@ -2189,10 +2174,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>10298</v>
+        <v>9953</v>
       </c>
       <c r="C72" s="4">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2200,7 +2185,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>1811</v>
+        <v>1729</v>
       </c>
       <c r="C73" s="4">
         <v>21</v>
@@ -2211,7 +2196,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -2233,7 +2218,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C76" s="4">
         <v>8</v>
@@ -2244,7 +2229,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C77" s="4">
         <v>4</v>
@@ -2255,7 +2240,7 @@
         <v>79</v>
       </c>
       <c r="B78" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C78" s="4">
         <v>1</v>
@@ -2266,7 +2251,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C79" s="4">
         <v>2</v>
@@ -2288,10 +2273,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>5211</v>
+        <v>5015</v>
       </c>
       <c r="C81" s="4">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2310,7 +2295,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2321,7 +2306,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2332,7 +2317,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -2343,10 +2328,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>6307</v>
+        <v>6201</v>
       </c>
       <c r="C86" s="4">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2354,7 +2339,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="4">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -2365,7 +2350,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -2398,7 +2383,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
@@ -2409,7 +2394,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C92" s="4">
         <v>4</v>
@@ -2420,7 +2405,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="C93" s="4">
         <v>7</v>
@@ -2431,7 +2416,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>889</v>
+        <v>837</v>
       </c>
       <c r="C94" s="4">
         <v>15</v>
@@ -2442,7 +2427,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>691</v>
+        <v>658</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2453,7 +2438,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>1115</v>
+        <v>1044</v>
       </c>
       <c r="C96" s="4">
         <v>3</v>
@@ -2464,10 +2449,10 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>808</v>
+        <v>776</v>
       </c>
       <c r="C97" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2486,7 +2471,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="4">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -2497,7 +2482,7 @@
         <v>101</v>
       </c>
       <c r="B100" s="4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C100" s="4">
         <v>2</v>
@@ -2519,7 +2504,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>488</v>
+        <v>404</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2530,10 +2515,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>49027</v>
+        <v>47369</v>
       </c>
       <c r="C103" s="4">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2541,7 +2526,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C104" s="4">
         <v>31</v>
@@ -2552,7 +2537,7 @@
         <v>106</v>
       </c>
       <c r="B105" s="4">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C105" s="4">
         <v>2</v>
@@ -2563,7 +2548,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="4">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C106" s="4">
         <v>0</v>
@@ -2574,10 +2559,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>3699</v>
+        <v>3643</v>
       </c>
       <c r="C107" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2596,7 +2581,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="C109" s="4">
         <v>5</v>
@@ -2607,10 +2592,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>8197</v>
+        <v>8040</v>
       </c>
       <c r="C110" s="4">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2618,7 +2603,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C111" s="4">
         <v>2</v>
@@ -2629,10 +2614,10 @@
         <v>113</v>
       </c>
       <c r="B112" s="4">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C112" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2640,7 +2625,7 @@
         <v>114</v>
       </c>
       <c r="B113" s="4">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C113" s="4">
         <v>5</v>
@@ -2651,7 +2636,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -2662,7 +2647,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2673,7 +2658,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -2695,7 +2680,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>768</v>
+        <v>720</v>
       </c>
       <c r="C118" s="4">
         <v>8</v>
@@ -2706,7 +2691,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -2739,7 +2724,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
@@ -2750,7 +2735,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C123" s="4">
         <v>1</v>
@@ -2761,7 +2746,7 @@
         <v>125</v>
       </c>
       <c r="B124" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" s="4">
         <v>0</v>
@@ -2772,10 +2757,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>3868</v>
+        <v>3665</v>
       </c>
       <c r="C125" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -2783,7 +2768,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="4">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -2794,7 +2779,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2805,7 +2790,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>932</v>
+        <v>885</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2816,7 +2801,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2827,7 +2812,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="4">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -2838,7 +2823,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>1109</v>
+        <v>1061</v>
       </c>
       <c r="C131" s="4">
         <v>5</v>
@@ -2882,7 +2867,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C135" s="4">
         <v>1</v>
@@ -2926,7 +2911,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
@@ -2937,7 +2922,7 @@
         <v>141</v>
       </c>
       <c r="B140" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C140" s="4">
         <v>0</v>
@@ -2970,7 +2955,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -2981,7 +2966,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -2992,7 +2977,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -3003,7 +2988,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C146" s="4">
         <v>3</v>
@@ -3014,7 +2999,7 @@
         <v>148</v>
       </c>
       <c r="B147" s="4">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3025,7 +3010,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3036,7 +3021,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3058,7 +3043,7 @@
         <v>152</v>
       </c>
       <c r="B151" s="4">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C151" s="4">
         <v>0</v>
@@ -3069,7 +3054,7 @@
         <v>153</v>
       </c>
       <c r="B152" s="4">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
@@ -3102,7 +3087,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C155" s="4">
         <v>2</v>
@@ -3113,7 +3098,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3135,7 +3120,7 @@
         <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
@@ -3157,7 +3142,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3168,10 +3153,10 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="C161" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3190,10 +3175,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>2920</v>
+        <v>2744</v>
       </c>
       <c r="C163" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3212,7 +3197,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>419</v>
+        <v>360</v>
       </c>
       <c r="C165" s="4">
         <v>3</v>
@@ -3234,10 +3219,10 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>1266</v>
+        <v>1194</v>
       </c>
       <c r="C167" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3245,7 +3230,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3267,7 +3252,7 @@
         <v>171</v>
       </c>
       <c r="B170" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
@@ -3278,7 +3263,7 @@
         <v>172</v>
       </c>
       <c r="B171" s="4">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C171" s="4">
         <v>1</v>
@@ -3289,10 +3274,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>3471</v>
+        <v>3112</v>
       </c>
       <c r="C172" s="4">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3333,7 +3318,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="C176" s="4">
         <v>33</v>
@@ -3344,7 +3329,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="C177" s="4">
         <v>7</v>
@@ -3355,7 +3340,7 @@
         <v>179</v>
       </c>
       <c r="B178" s="4">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C178" s="4">
         <v>0</v>
@@ -3366,7 +3351,7 @@
         <v>180</v>
       </c>
       <c r="B179" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -3377,10 +3362,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>7032</v>
+        <v>6427</v>
       </c>
       <c r="C180" s="4">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3421,7 +3406,7 @@
         <v>185</v>
       </c>
       <c r="B184" s="4">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C184" s="4">
         <v>2</v>
@@ -3443,7 +3428,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>665</v>
+        <v>615</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3465,7 +3450,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C188" s="4">
         <v>1</v>
@@ -3487,7 +3472,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>3081</v>
+        <v>3056</v>
       </c>
       <c r="C190" s="4">
         <v>39</v>
@@ -3498,7 +3483,7 @@
         <v>192</v>
       </c>
       <c r="B191" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
@@ -3509,10 +3494,10 @@
         <v>193</v>
       </c>
       <c r="B192" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C192" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3520,7 +3505,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>1133</v>
+        <v>1105</v>
       </c>
       <c r="C193" s="4">
         <v>7</v>
@@ -3564,10 +3549,10 @@
         <v>198</v>
       </c>
       <c r="B197" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C197" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3575,7 +3560,7 @@
         <v>199</v>
       </c>
       <c r="B198" s="4">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -3597,7 +3582,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3608,7 +3593,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="C201" s="4">
         <v>16</v>
@@ -3619,7 +3604,7 @@
         <v>203</v>
       </c>
       <c r="B202" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -3630,7 +3615,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C203" s="4">
         <v>3</v>
@@ -3663,7 +3648,7 @@
         <v>207</v>
       </c>
       <c r="B206" s="4">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C206" s="4">
         <v>2</v>
@@ -3674,7 +3659,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -3685,7 +3670,7 @@
         <v>209</v>
       </c>
       <c r="B208" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
@@ -3729,7 +3714,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C212" s="4">
         <v>14</v>
@@ -3751,7 +3736,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>1499</v>
+        <v>1441</v>
       </c>
       <c r="C214" s="4">
         <v>7</v>
@@ -3773,10 +3758,10 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>1061</v>
+        <v>1017</v>
       </c>
       <c r="C216" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3784,7 +3769,7 @@
         <v>218</v>
       </c>
       <c r="B217" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C217" s="4">
         <v>0</v>
@@ -3817,7 +3802,7 @@
         <v>221</v>
       </c>
       <c r="B220" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
@@ -3828,7 +3813,7 @@
         <v>222</v>
       </c>
       <c r="B221" s="4">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C221" s="4">
         <v>1</v>
@@ -3839,7 +3824,7 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>19014</v>
+        <v>18483</v>
       </c>
       <c r="C222" s="4">
         <v>272</v>
@@ -3850,10 +3835,10 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>794</v>
+        <v>766</v>
       </c>
       <c r="C223" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3872,7 +3857,7 @@
         <v>226</v>
       </c>
       <c r="B225" s="4">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
@@ -3894,7 +3879,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C227" s="4">
         <v>6</v>
@@ -3905,10 +3890,10 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>1160</v>
+        <v>1065</v>
       </c>
       <c r="C228" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3916,10 +3901,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>15998</v>
+        <v>15445</v>
       </c>
       <c r="C229" s="4">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3927,7 +3912,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -3949,7 +3934,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -3971,10 +3956,10 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C234" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3982,10 +3967,10 @@
         <v>236</v>
       </c>
       <c r="B235" s="4">
-        <v>657</v>
+        <v>503</v>
       </c>
       <c r="C235" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -3993,7 +3978,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C236" s="4">
         <v>3</v>
@@ -4004,10 +3989,10 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>1991</v>
+        <v>1599</v>
       </c>
       <c r="C237" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4015,7 +4000,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>2495</v>
+        <v>2490</v>
       </c>
       <c r="C238" s="4">
         <v>28</v>
@@ -4026,7 +4011,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4037,7 +4022,7 @@
         <v>241</v>
       </c>
       <c r="B240" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4048,7 +4033,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C241" s="4">
         <v>33</v>
@@ -4059,10 +4044,10 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>3211</v>
+        <v>3001</v>
       </c>
       <c r="C242" s="4">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4070,7 +4055,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4081,7 +4066,7 @@
         <v>245</v>
       </c>
       <c r="B244" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C244" s="4">
         <v>0</v>
@@ -4092,10 +4077,10 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="C245" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4103,7 +4088,7 @@
         <v>247</v>
       </c>
       <c r="B246" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
@@ -4114,7 +4099,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4125,7 +4110,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>4153</v>
+        <v>4042</v>
       </c>
       <c r="C248" s="4">
         <v>56</v>
@@ -4136,7 +4121,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4147,7 +4132,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="4">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4158,7 +4143,7 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C251" s="4">
         <v>5</v>
@@ -4169,7 +4154,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
@@ -4191,7 +4176,7 @@
         <v>255</v>
       </c>
       <c r="B254" s="4">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C254" s="4">
         <v>1</v>
@@ -4202,7 +4187,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4213,7 +4198,7 @@
         <v>257</v>
       </c>
       <c r="B256" s="4">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4224,10 +4209,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>282365</v>
+        <v>275058</v>
       </c>
       <c r="C257" s="4">
-        <v>3432</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="29.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4254,10 +4239,10 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C6"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4287,10 +4272,10 @@
         <v>325</v>
       </c>
       <c r="B3" s="11">
-        <v>12560</v>
-      </c>
-      <c r="C3" s="20">
-        <v>47.807551766000003</v>
+        <v>12249</v>
+      </c>
+      <c r="C3" s="19">
+        <v>48.042830248000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4298,10 +4283,10 @@
         <v>326</v>
       </c>
       <c r="B4" s="11">
-        <v>13369</v>
-      </c>
-      <c r="C4" s="20">
-        <v>50.886875760999999</v>
+        <v>12955</v>
+      </c>
+      <c r="C4" s="19">
+        <v>50.811892061999998</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4309,10 +4294,10 @@
         <v>320</v>
       </c>
       <c r="B5" s="11">
-        <v>343</v>
-      </c>
-      <c r="C5" s="20">
-        <v>1.3055724726</v>
+        <v>292</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1.1452776906</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4320,9 +4305,9 @@
         <v>258</v>
       </c>
       <c r="B6" s="11">
-        <v>26272</v>
-      </c>
-      <c r="C6" s="20">
+        <v>25496</v>
+      </c>
+      <c r="C6" s="19">
         <v>100</v>
       </c>
     </row>
@@ -4366,10 +4351,10 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C9"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4399,10 +4384,10 @@
         <v>329</v>
       </c>
       <c r="B3" s="11">
-        <v>651</v>
-      </c>
-      <c r="C3" s="20">
-        <v>2.4779232643000002</v>
+        <v>642</v>
+      </c>
+      <c r="C3" s="19">
+        <v>2.5180420458000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4410,10 +4395,10 @@
         <v>330</v>
       </c>
       <c r="B4" s="11">
-        <v>2989</v>
-      </c>
-      <c r="C4" s="20">
-        <v>11.377131546999999</v>
+        <v>2916</v>
+      </c>
+      <c r="C4" s="19">
+        <v>11.437088170999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4421,10 +4406,10 @@
         <v>331</v>
       </c>
       <c r="B5" s="11">
-        <v>10534</v>
-      </c>
-      <c r="C5" s="20">
-        <v>40.095919610000003</v>
+        <v>10134</v>
+      </c>
+      <c r="C5" s="19">
+        <v>39.747411358999997</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4432,10 +4417,10 @@
         <v>332</v>
       </c>
       <c r="B6" s="11">
-        <v>135</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0.51385505480000004</v>
+        <v>133</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.52165045499999996</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4443,10 +4428,10 @@
         <v>333</v>
       </c>
       <c r="B7" s="11">
-        <v>6522</v>
-      </c>
-      <c r="C7" s="20">
-        <v>24.824908648000001</v>
+        <v>6346</v>
+      </c>
+      <c r="C7" s="19">
+        <v>24.890178851999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4454,10 +4439,10 @@
         <v>320</v>
       </c>
       <c r="B8" s="11">
-        <v>5441</v>
-      </c>
-      <c r="C8" s="20">
-        <v>20.710261876000001</v>
+        <v>5325</v>
+      </c>
+      <c r="C8" s="19">
+        <v>20.885629118000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4465,9 +4450,9 @@
         <v>258</v>
       </c>
       <c r="B9" s="11">
-        <v>26272</v>
-      </c>
-      <c r="C9" s="20">
+        <v>25496</v>
+      </c>
+      <c r="C9" s="19">
         <v>100</v>
       </c>
     </row>
@@ -4511,10 +4496,10 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C16"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4546,7 +4531,7 @@
       <c r="B3" s="12">
         <v>0</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>0</v>
       </c>
     </row>
@@ -4557,7 +4542,7 @@
       <c r="B4" s="12">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>0</v>
       </c>
     </row>
@@ -4568,7 +4553,7 @@
       <c r="B5" s="12">
         <v>0</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>0</v>
       </c>
     </row>
@@ -4577,10 +4562,10 @@
         <v>311</v>
       </c>
       <c r="B6" s="12">
-        <v>4</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0.54945054950000005</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.69541029210000005</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4590,8 +4575,8 @@
       <c r="B7" s="12">
         <v>12</v>
       </c>
-      <c r="C7" s="20">
-        <v>1.6483516484</v>
+      <c r="C7" s="19">
+        <v>1.6689847010000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4599,10 +4584,10 @@
         <v>313</v>
       </c>
       <c r="B8" s="12">
-        <v>28</v>
-      </c>
-      <c r="C8" s="20">
-        <v>3.8461538462</v>
+        <v>26</v>
+      </c>
+      <c r="C8" s="19">
+        <v>3.6161335187999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4612,8 +4597,8 @@
       <c r="B9" s="12">
         <v>77</v>
       </c>
-      <c r="C9" s="20">
-        <v>10.576923077</v>
+      <c r="C9" s="19">
+        <v>10.709318498</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4621,10 +4606,10 @@
         <v>315</v>
       </c>
       <c r="B10" s="12">
-        <v>74</v>
-      </c>
-      <c r="C10" s="20">
-        <v>10.164835165</v>
+        <v>71</v>
+      </c>
+      <c r="C10" s="19">
+        <v>9.8748261474000003</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4632,10 +4617,10 @@
         <v>316</v>
       </c>
       <c r="B11" s="12">
-        <v>84</v>
-      </c>
-      <c r="C11" s="20">
-        <v>11.538461538</v>
+        <v>82</v>
+      </c>
+      <c r="C11" s="19">
+        <v>11.40472879</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4645,8 +4630,8 @@
       <c r="B12" s="12">
         <v>79</v>
       </c>
-      <c r="C12" s="20">
-        <v>10.851648352</v>
+      <c r="C12" s="19">
+        <v>10.987482614999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4654,10 +4639,10 @@
         <v>318</v>
       </c>
       <c r="B13" s="12">
-        <v>85</v>
-      </c>
-      <c r="C13" s="20">
-        <v>11.675824176000001</v>
+        <v>83</v>
+      </c>
+      <c r="C13" s="19">
+        <v>11.543810848</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4665,10 +4650,10 @@
         <v>319</v>
       </c>
       <c r="B14" s="12">
-        <v>285</v>
-      </c>
-      <c r="C14" s="20">
-        <v>39.148351648000002</v>
+        <v>284</v>
+      </c>
+      <c r="C14" s="19">
+        <v>39.499304590000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4678,7 +4663,7 @@
       <c r="B15" s="12">
         <v>0</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>0</v>
       </c>
     </row>
@@ -4687,9 +4672,9 @@
         <v>258</v>
       </c>
       <c r="B16" s="12">
-        <v>728</v>
-      </c>
-      <c r="C16" s="20">
+        <v>719</v>
+      </c>
+      <c r="C16" s="19">
         <v>100</v>
       </c>
     </row>
@@ -4736,7 +4721,7 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4766,10 +4751,10 @@
         <v>325</v>
       </c>
       <c r="B3" s="12">
-        <v>300</v>
-      </c>
-      <c r="C3" s="20">
-        <v>41.208791208999997</v>
+        <v>299</v>
+      </c>
+      <c r="C3" s="19">
+        <v>41.585535466000003</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4777,10 +4762,10 @@
         <v>326</v>
       </c>
       <c r="B4" s="12">
-        <v>427</v>
-      </c>
-      <c r="C4" s="20">
-        <v>58.653846154</v>
+        <v>419</v>
+      </c>
+      <c r="C4" s="19">
+        <v>58.275382475999997</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4790,8 +4775,8 @@
       <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="20">
-        <v>0.13736263739999999</v>
+      <c r="C5" s="19">
+        <v>0.13908205840000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4799,9 +4784,9 @@
         <v>258</v>
       </c>
       <c r="B6" s="12">
-        <v>728</v>
-      </c>
-      <c r="C6" s="20">
+        <v>719</v>
+      </c>
+      <c r="C6" s="19">
         <v>100</v>
       </c>
     </row>
@@ -4845,10 +4830,10 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C9"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4880,8 +4865,8 @@
       <c r="B3" s="11">
         <v>14</v>
       </c>
-      <c r="C3" s="20">
-        <v>1.9230769231</v>
+      <c r="C3" s="19">
+        <v>1.9471488178</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4889,10 +4874,10 @@
         <v>330</v>
       </c>
       <c r="B4" s="11">
-        <v>94</v>
-      </c>
-      <c r="C4" s="20">
-        <v>12.912087912000001</v>
+        <v>92</v>
+      </c>
+      <c r="C4" s="19">
+        <v>12.795549374</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4900,10 +4885,10 @@
         <v>331</v>
       </c>
       <c r="B5" s="11">
-        <v>211</v>
-      </c>
-      <c r="C5" s="20">
-        <v>28.983516483999999</v>
+        <v>210</v>
+      </c>
+      <c r="C5" s="19">
+        <v>29.207232266999998</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4913,8 +4898,8 @@
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="20">
-        <v>0.13736263739999999</v>
+      <c r="C6" s="19">
+        <v>0.13908205840000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4922,10 +4907,10 @@
         <v>333</v>
       </c>
       <c r="B7" s="11">
-        <v>315</v>
-      </c>
-      <c r="C7" s="20">
-        <v>43.269230769000004</v>
+        <v>310</v>
+      </c>
+      <c r="C7" s="19">
+        <v>43.115438107999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4933,10 +4918,10 @@
         <v>320</v>
       </c>
       <c r="B8" s="11">
-        <v>93</v>
-      </c>
-      <c r="C8" s="20">
-        <v>12.774725275</v>
+        <v>92</v>
+      </c>
+      <c r="C8" s="19">
+        <v>12.795549374</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -4944,9 +4929,9 @@
         <v>258</v>
       </c>
       <c r="B9" s="11">
-        <v>728</v>
-      </c>
-      <c r="C9" s="20">
+        <v>719</v>
+      </c>
+      <c r="C9" s="19">
         <v>100</v>
       </c>
     </row>
@@ -4985,17 +4970,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.38671875" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -6449,7 +6434,7 @@
     </row>
     <row r="87" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B87" s="4">
         <v>93206</v>
@@ -6940,79 +6925,33 @@
         <v>87</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="B116" s="4">
-        <f>B115-3484</f>
-        <v>271574</v>
-      </c>
-      <c r="C116" s="4">
-        <v>3322</v>
-      </c>
-      <c r="D116" s="4">
-        <v>-3484</v>
-      </c>
-      <c r="E116" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="6">
-        <v>44027</v>
-      </c>
-      <c r="B117" s="4">
-        <v>282365</v>
-      </c>
-      <c r="C117" s="4">
-        <v>3432</v>
-      </c>
-      <c r="D117" s="4">
-        <v>10791</v>
-      </c>
-      <c r="E117" s="4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="15" t="s">
+    <row r="117" spans="1:5" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-    </row>
-    <row r="120" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="15" t="s">
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+    </row>
+    <row r="118" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-    </row>
-    <row r="121" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A118:E118"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -7026,7 +6965,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -7048,10 +6987,10 @@
     </row>
     <row r="3" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
-        <v>149275.6</v>
+        <v>142397.79999999999</v>
       </c>
       <c r="B3" s="8">
-        <v>129657</v>
+        <v>129338</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -7072,20 +7011,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9757,57 +9696,43 @@
       <c r="A104" s="6">
         <v>44026</v>
       </c>
-      <c r="B104" s="8">
-        <v>2642199</v>
-      </c>
-      <c r="C104" s="8">
-        <v>222342</v>
+      <c r="B104" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="D104" s="8">
         <v>2864541</v>
       </c>
-      <c r="E104" s="18">
-        <v>0.16812128576681001</v>
-      </c>
-      <c r="F104" s="8">
-        <v>54784</v>
-      </c>
-      <c r="G104" s="8">
-        <v>1432</v>
-      </c>
-      <c r="H104" s="8">
-        <v>56216</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="6">
-        <v>44027</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D105" s="8">
-        <v>2924288</v>
-      </c>
-      <c r="E105" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H105" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E104" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+    </row>
+    <row r="107" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -9817,23 +9742,11 @@
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
     </row>
-    <row r="108" spans="1:8" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A106:H106"/>
     <mergeCell ref="A107:H107"/>
-    <mergeCell ref="A108:H108"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9850,7 +9763,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -9875,7 +9788,7 @@
         <v>286</v>
       </c>
       <c r="B3" s="8">
-        <v>108617</v>
+        <v>106892</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -9883,7 +9796,7 @@
         <v>287</v>
       </c>
       <c r="B4" s="8">
-        <v>2815671</v>
+        <v>2757649</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -9891,7 +9804,7 @@
         <v>288</v>
       </c>
       <c r="B5" s="8">
-        <v>2924288</v>
+        <v>2864541</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -9920,7 +9833,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -9945,7 +9858,7 @@
         <v>292</v>
       </c>
       <c r="B3" s="8">
-        <v>222342</v>
+        <v>222123</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -9953,7 +9866,7 @@
         <v>293</v>
       </c>
       <c r="B4" s="8">
-        <v>7652</v>
+        <v>7646</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -9982,7 +9895,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
@@ -10007,7 +9920,7 @@
         <v>296</v>
       </c>
       <c r="B3" s="9">
-        <v>10471</v>
+        <v>10569</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -10015,7 +9928,7 @@
         <v>297</v>
       </c>
       <c r="B4" s="9">
-        <v>56171</v>
+        <v>55017</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -10023,7 +9936,7 @@
         <v>298</v>
       </c>
       <c r="B5" s="9">
-        <v>10586</v>
+        <v>11402</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -10031,7 +9944,7 @@
         <v>299</v>
       </c>
       <c r="B6" s="9">
-        <v>853</v>
+        <v>949</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -10039,7 +9952,7 @@
         <v>300</v>
       </c>
       <c r="B7" s="9">
-        <v>5059</v>
+        <v>5051</v>
       </c>
     </row>
   </sheetData>
@@ -10053,7 +9966,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -10061,7 +9974,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -11206,17 +11119,6 @@
       </c>
       <c r="C104" s="9">
         <v>10569</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="2">
-        <v>103</v>
-      </c>
-      <c r="B105" s="6">
-        <v>44027</v>
-      </c>
-      <c r="C105" s="9">
-        <v>10471</v>
       </c>
     </row>
   </sheetData>
@@ -11238,7 +11140,7 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -11268,10 +11170,10 @@
         <v>308</v>
       </c>
       <c r="B3" s="11">
-        <v>111</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0.42250304509999997</v>
+        <v>106</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.41575149039999998</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11279,10 +11181,10 @@
         <v>309</v>
       </c>
       <c r="B4" s="11">
-        <v>496</v>
-      </c>
-      <c r="C4" s="20">
-        <v>1.8879415346999999</v>
+        <v>479</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1.8787260747000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11290,10 +11192,10 @@
         <v>310</v>
       </c>
       <c r="B5" s="11">
-        <v>1293</v>
-      </c>
-      <c r="C5" s="20">
-        <v>4.9215895249999999</v>
+        <v>1244</v>
+      </c>
+      <c r="C5" s="19">
+        <v>4.8791967367</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11301,10 +11203,10 @@
         <v>311</v>
       </c>
       <c r="B6" s="11">
-        <v>4901</v>
-      </c>
-      <c r="C6" s="20">
-        <v>18.654841656999999</v>
+        <v>4718</v>
+      </c>
+      <c r="C6" s="19">
+        <v>18.504863508</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11312,10 +11214,10 @@
         <v>312</v>
       </c>
       <c r="B7" s="11">
-        <v>4867</v>
-      </c>
-      <c r="C7" s="20">
-        <v>18.525426309</v>
+        <v>4717</v>
+      </c>
+      <c r="C7" s="19">
+        <v>18.500941323999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11323,10 +11225,10 @@
         <v>313</v>
       </c>
       <c r="B8" s="11">
-        <v>4684</v>
-      </c>
-      <c r="C8" s="20">
-        <v>17.828867235000001</v>
+        <v>4538</v>
+      </c>
+      <c r="C8" s="19">
+        <v>17.798870410999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11334,10 +11236,10 @@
         <v>314</v>
       </c>
       <c r="B9" s="11">
-        <v>4353</v>
-      </c>
-      <c r="C9" s="20">
-        <v>16.568970767</v>
+        <v>4251</v>
+      </c>
+      <c r="C9" s="19">
+        <v>16.673203640000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11345,10 +11247,10 @@
         <v>315</v>
       </c>
       <c r="B10" s="11">
-        <v>1735</v>
-      </c>
-      <c r="C10" s="20">
-        <v>6.6039890377999999</v>
+        <v>1688</v>
+      </c>
+      <c r="C10" s="19">
+        <v>6.6206463758999998</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11356,10 +11258,10 @@
         <v>316</v>
       </c>
       <c r="B11" s="11">
-        <v>1266</v>
-      </c>
-      <c r="C11" s="20">
-        <v>4.8188185140000002</v>
+        <v>1225</v>
+      </c>
+      <c r="C11" s="19">
+        <v>4.8046752432000002</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11367,10 +11269,10 @@
         <v>317</v>
       </c>
       <c r="B12" s="11">
-        <v>807</v>
-      </c>
-      <c r="C12" s="20">
-        <v>3.0717113276000001</v>
+        <v>795</v>
+      </c>
+      <c r="C12" s="19">
+        <v>3.1181361781999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11378,10 +11280,10 @@
         <v>318</v>
       </c>
       <c r="B13" s="11">
-        <v>615</v>
-      </c>
-      <c r="C13" s="20">
-        <v>2.3408952497</v>
+        <v>601</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2.3572325071</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11389,10 +11291,10 @@
         <v>319</v>
       </c>
       <c r="B14" s="11">
-        <v>1126</v>
-      </c>
-      <c r="C14" s="20">
-        <v>4.2859317905000003</v>
+        <v>1116</v>
+      </c>
+      <c r="C14" s="19">
+        <v>4.3771572011000002</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11402,8 +11304,8 @@
       <c r="B15" s="11">
         <v>18</v>
       </c>
-      <c r="C15" s="20">
-        <v>6.8514007299999999E-2</v>
+      <c r="C15" s="19">
+        <v>7.0599309700000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
@@ -11411,9 +11313,9 @@
         <v>258</v>
       </c>
       <c r="B16" s="11">
-        <v>26272</v>
-      </c>
-      <c r="C16" s="20">
+        <v>25496</v>
+      </c>
+      <c r="C16" s="19">
         <v>100</v>
       </c>
     </row>
